--- a/Data.xlsx
+++ b/Data.xlsx
@@ -377,8 +377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,6 +456,9 @@
       <c r="L2">
         <v>3.37</v>
       </c>
+      <c r="M2">
+        <v>3.4969999999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -520,6 +523,9 @@
       <c r="L5">
         <v>3.32</v>
       </c>
+      <c r="M5">
+        <v>3.2759999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -581,6 +587,9 @@
       <c r="L8">
         <v>3.26</v>
       </c>
+      <c r="M8">
+        <v>3.23</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -642,6 +651,9 @@
       <c r="L11">
         <v>3.35</v>
       </c>
+      <c r="M11">
+        <v>3.36</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -679,6 +691,33 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
+      <c r="C14">
+        <v>90.2</v>
+      </c>
+      <c r="D14">
+        <v>80.09</v>
+      </c>
+      <c r="E14">
+        <v>80.09</v>
+      </c>
+      <c r="F14">
+        <v>88.15</v>
+      </c>
+      <c r="G14">
+        <v>82.5</v>
+      </c>
+      <c r="H14">
+        <v>76.33</v>
+      </c>
+      <c r="I14">
+        <v>90.68</v>
+      </c>
+      <c r="L14">
+        <v>3.41</v>
+      </c>
+      <c r="M14">
+        <v>3.31</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -706,15 +745,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>87.88</v>
+      </c>
+      <c r="D17">
+        <v>80.42</v>
+      </c>
+      <c r="E17">
+        <v>80.42</v>
+      </c>
+      <c r="F17">
+        <v>79.87</v>
+      </c>
+      <c r="G17">
+        <v>79.87</v>
+      </c>
+      <c r="H17">
+        <v>76.92</v>
+      </c>
+      <c r="L17">
+        <v>3.26</v>
+      </c>
+      <c r="M17">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -737,15 +800,45 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>75.33</v>
+      </c>
+      <c r="D20">
+        <v>67.930000000000007</v>
+      </c>
+      <c r="E20">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="F20">
+        <v>77.64</v>
+      </c>
+      <c r="G20">
+        <v>77.64</v>
+      </c>
+      <c r="H20">
+        <v>77.75</v>
+      </c>
+      <c r="I20">
+        <v>96.33</v>
+      </c>
+      <c r="J20">
+        <v>80.38</v>
+      </c>
+      <c r="L20">
+        <v>3.05</v>
+      </c>
+      <c r="M20">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -774,15 +867,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>85.98</v>
+      </c>
+      <c r="D23">
+        <v>94</v>
+      </c>
+      <c r="E23">
+        <v>94</v>
+      </c>
+      <c r="F23">
+        <v>84.7</v>
+      </c>
+      <c r="G23">
+        <v>85.3</v>
+      </c>
+      <c r="H23">
+        <v>92.9</v>
+      </c>
+      <c r="I23">
+        <v>91.25</v>
+      </c>
+      <c r="L23">
+        <v>3.75</v>
+      </c>
+      <c r="M23">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Course#1</t>
   </si>
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,6 +928,73 @@
         <v>3</v>
       </c>
     </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>93.6</v>
+      </c>
+      <c r="D26">
+        <v>88.4</v>
+      </c>
+      <c r="E26">
+        <v>85</v>
+      </c>
+      <c r="F26">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="G26">
+        <v>90.2</v>
+      </c>
+      <c r="H26">
+        <v>91.23</v>
+      </c>
+      <c r="I26">
+        <v>88.07</v>
+      </c>
+      <c r="J26">
+        <v>91.07</v>
+      </c>
+      <c r="L26">
+        <v>3.73</v>
+      </c>
+      <c r="M26">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
